--- a/Singapore-Area.xlsx
+++ b/Singapore-Area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive - Duta Wacana Christian University\Classes\Data Warehouse\Data Warehouse 20201\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan simon\Documents\GitHub\DW20201_A_B5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3974C182-11E5-4B78-986A-4D4FDFBD4313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABACC32-8AE2-4E33-9CAC-154C3CCD58F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="singapore-area" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>North</t>
   </si>
   <si>
-    <t>Jurong West, Bukit Batok ,Bukit Panjan, Sembawang, Choa Chu Kang</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>Jurong West, Bukit Batok ,Bukit Panjang, Sembawang, Choa Chu Kang</t>
   </si>
 </sst>
 </file>
@@ -390,39 +390,39 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
